--- a/ЭОПР/ЭОПР.xlsx
+++ b/ЭОПР/ЭОПР.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\8 семестр\ЭОПР\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,9 +34,6 @@
   </si>
   <si>
     <t>- управление вводом/выводом</t>
-  </si>
-  <si>
-    <t>- генерация рабочих программ</t>
   </si>
   <si>
     <t>- формирование служебных таблиц</t>
@@ -142,6 +134,9 @@
   </si>
   <si>
     <t>Фэр</t>
+  </si>
+  <si>
+    <t>- генерация структуры БД</t>
   </si>
 </sst>
 </file>
@@ -302,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -334,30 +329,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,7 +417,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,7 +452,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -631,7 +629,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -641,19 +639,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" customWidth="1"/>
-    <col min="4" max="4" width="32.7265625" customWidth="1"/>
-    <col min="5" max="5" width="30.08984375" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="46" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -661,128 +659,128 @@
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="37" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:5" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>0.33500000000000002</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="17">
         <v>2</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="73" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="95.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>1.05</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="73" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>3.2250000000000001</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="37" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="B5" s="2">
         <v>3.72</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="55" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>2.0049999999999999</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="37" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>1.5549999999999999</v>
       </c>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:5" ht="37" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5">
         <v>4.55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="37" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5">
         <v>3.25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="37" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>2.6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12">
         <f>SUM(B2:B11)</f>
         <v>22.515000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.4">
-      <c r="A14" s="13">
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
         <v>295.7</v>
       </c>
       <c r="B14">
@@ -790,35 +788,35 @@
         <v>295.7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="1:5" ht="36.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:5" ht="38.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="19" t="s">
+    <row r="18" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="B18" s="7">
         <v>0.7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>0.11</v>
@@ -828,9 +826,9 @@
         <v>32.527000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>0.09</v>
@@ -840,9 +838,9 @@
         <v>26.613</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>0.11</v>
@@ -852,9 +850,9 @@
         <v>32.527000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>0.55000000000000004</v>
@@ -864,9 +862,9 @@
         <v>113.84450000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>0.14000000000000001</v>
@@ -876,9 +874,9 @@
         <v>41.398000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <f>SUM(B21:B25)</f>
@@ -889,26 +887,26 @@
         <v>246.90950000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <f>C26/(1*20.56*8)</f>
         <v>1.5011521157587551</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>1974</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <f>$B$30*(1-C31/100)</f>
@@ -918,9 +916,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <f>$B$30*(1-C32/100)</f>

--- a/ЭОПР/ЭОПР.xlsx
+++ b/ЭОПР/ЭОПР.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\8 семестр\ЭОПР\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Функция</t>
   </si>
@@ -137,6 +143,18 @@
   </si>
   <si>
     <t>- генерация структуры БД</t>
+  </si>
+  <si>
+    <t>Uпост</t>
+  </si>
+  <si>
+    <t>Uперем</t>
+  </si>
+  <si>
+    <t>Uполн</t>
+  </si>
+  <si>
+    <t>В</t>
   </si>
 </sst>
 </file>
@@ -345,6 +363,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -353,9 +374,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -372,6 +390,1108 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Перем</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$B$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$B$4:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Пост</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$B$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$B$3:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>полн</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$B$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$B$5:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>49600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>В</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$B$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$B$6:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>57040</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="367151248"/>
+        <c:axId val="367151640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="367151248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="367151640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="367151640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="367151248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -629,7 +1749,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -639,19 +1759,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="39.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="4" max="4" width="32.7265625" customWidth="1"/>
+    <col min="5" max="5" width="30.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="46" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -665,69 +1785,69 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="37" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>0.33500000000000002</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="18">
         <v>2</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="95.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="73" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>1.05</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="73" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>3.2250000000000001</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:5" ht="37" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="17" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="2">
         <v>3.72</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="55" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>2.0049999999999999</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="37" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -736,7 +1856,7 @@
       </c>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:5" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="37" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -744,7 +1864,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="37" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -752,7 +1872,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="37" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -760,7 +1880,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -768,18 +1888,18 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B12">
         <f>SUM(B2:B11)</f>
         <v>22.515000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.4">
       <c r="A14" s="11">
         <v>295.7</v>
       </c>
@@ -788,8 +1908,8 @@
         <v>295.7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:5" ht="38.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:5" ht="36.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>19</v>
       </c>
@@ -797,7 +1917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="14" t="s">
         <v>20</v>
       </c>
@@ -805,7 +1925,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -813,8 +1933,8 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -826,7 +1946,7 @@
         <v>32.527000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -838,7 +1958,7 @@
         <v>26.613</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -850,7 +1970,7 @@
         <v>32.527000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -862,7 +1982,7 @@
         <v>113.84450000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -874,7 +1994,7 @@
         <v>41.398000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -887,7 +2007,7 @@
         <v>246.90950000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -896,7 +2016,7 @@
         <v>1.5011521157587551</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -904,7 +2024,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -916,7 +2036,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -935,4 +2055,89 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>46000</v>
+      </c>
+      <c r="C3">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>3600</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <f>B3+B4</f>
+        <v>49600</v>
+      </c>
+      <c r="C5">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>57040</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <f>B6/10</f>
+        <v>5704</v>
+      </c>
+      <c r="C9">
+        <f>3600/10</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <f>46000/(5704-360)</f>
+        <v>8.6077844311377252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ЭОПР/ЭОПР.xlsx
+++ b/ЭОПР/ЭОПР.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Функция</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>Фэр</t>
-  </si>
-  <si>
-    <t>- генерация структуры БД</t>
   </si>
   <si>
     <t>Uпост</t>
@@ -315,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -363,9 +360,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -407,7 +401,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -699,11 +692,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="367151248"/>
-        <c:axId val="367151640"/>
+        <c:axId val="250064616"/>
+        <c:axId val="250065008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="367151248"/>
+        <c:axId val="250064616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -760,12 +753,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367151640"/>
+        <c:crossAx val="250065008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="367151640"/>
+        <c:axId val="250065008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,7 +815,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367151248"/>
+        <c:crossAx val="250064616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -836,7 +829,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1759,8 +1751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1792,7 +1784,7 @@
       <c r="B2" s="2">
         <v>0.33500000000000002</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>2</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -1806,7 +1798,7 @@
       <c r="B3" s="2">
         <v>1.05</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="9" t="s">
         <v>14</v>
       </c>
@@ -1818,80 +1810,73 @@
       <c r="B4" s="2">
         <v>3.2250000000000001</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="37" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="17" t="s">
-        <v>34</v>
+      <c r="A5" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>3.72</v>
-      </c>
-      <c r="D5" s="19"/>
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="D5" s="18"/>
       <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="55" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>2.0049999999999999</v>
-      </c>
-      <c r="D6" s="20"/>
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="D6" s="19"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="37" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1.5549999999999999</v>
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5">
+        <v>4.55</v>
       </c>
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:5" ht="37" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5">
-        <v>4.55</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="37" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="37" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12">
-        <f>SUM(B2:B11)</f>
-        <v>22.515000000000004</v>
+        <f>SUM(B2:B10)</f>
+        <v>18.795000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1901,11 +1886,11 @@
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.4">
       <c r="A14" s="11">
-        <v>295.7</v>
+        <v>327.60000000000002</v>
       </c>
       <c r="B14">
-        <f>A14*1</f>
-        <v>295.7</v>
+        <f>A14*1.06</f>
+        <v>347.25600000000003</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -1943,7 +1928,7 @@
       </c>
       <c r="C21">
         <f>B21*$B$14</f>
-        <v>32.527000000000001</v>
+        <v>38.198160000000001</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -1955,7 +1940,7 @@
       </c>
       <c r="C22">
         <f t="shared" ref="C22:C25" si="0">B22*$B$14</f>
-        <v>26.613</v>
+        <v>31.253040000000002</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -1967,7 +1952,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>32.527000000000001</v>
+        <v>38.198160000000001</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -1979,7 +1964,7 @@
       </c>
       <c r="C24">
         <f>B24*$B$14*B18</f>
-        <v>113.84450000000001</v>
+        <v>133.69356000000002</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -1991,7 +1976,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>41.398000000000003</v>
+        <v>48.615840000000006</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -2004,7 +1989,7 @@
       </c>
       <c r="C26">
         <f>SUM(C21:C25)</f>
-        <v>246.90950000000001</v>
+        <v>289.95876000000004</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -2013,7 +1998,7 @@
       </c>
       <c r="B28">
         <f>C26/(1*20.56*8)</f>
-        <v>1.5011521157587551</v>
+        <v>1.7628815661478603</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -2061,7 +2046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2077,7 +2062,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>46000</v>
@@ -2088,7 +2073,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>3600</v>
@@ -2099,7 +2084,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <f>B3+B4</f>
@@ -2111,7 +2096,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>57040</v>
